--- a/P2/신도시.xlsx
+++ b/P2/신도시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASD\Desktop\Programming\Project\Side Projects\DTC\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01874125-2A58-4CAF-874D-96ABE32D42D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB4C4F-8EF7-4592-9C7A-FD1D0FB421F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="435" windowWidth="14280" windowHeight="15165" xr2:uid="{A92BF12A-EA3C-4153-852F-6526340B7799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A92BF12A-EA3C-4153-852F-6526340B7799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>김포</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개당인구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,16 +1482,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1848,13 +1852,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EECE84-83C2-46A7-B515-37D38FE67FA0}">
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
@@ -2219,7 +2226,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -2248,7 +2255,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2313,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +2371,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -2422,7 +2429,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -2451,30 +2458,326 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1">
+        <f>C$3*10000/C4</f>
+        <v>1114.2857142857142</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:H26" si="2">D$3*10000/D4</f>
+        <v>1621.6216216216217</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>1190.4761904761904</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>1851.851851851852</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>1408.4507042253522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:H27" si="3">C$3*10000/C5</f>
+        <v>1514.5631067961165</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="3"/>
+        <v>1515.1515151515152</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>1026.3157894736842</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>1923.0769230769231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" s="1">
-        <f>C23*14</f>
-        <v>84.358974358974365</v>
+        <f t="shared" ref="C28:H28" si="4">C$3*10000/C6</f>
+        <v>22285.714285714286</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:H28" si="2">D23*14</f>
-        <v>45.5</v>
+        <f t="shared" si="4"/>
+        <v>48000</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
-        <v>36.4</v>
+        <f t="shared" si="4"/>
+        <v>33333.333333333336</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>62.300000000000004</v>
+        <f t="shared" si="4"/>
+        <v>40000</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="2"/>
-        <v>87.948717948717942</v>
+        <f t="shared" si="4"/>
+        <v>11142.857142857143</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>113.39999999999999</v>
+        <f t="shared" si="4"/>
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:H29" si="5">C$3*10000/C7</f>
+        <v>19500</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="5"/>
+        <v>34285.714285714283</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="5"/>
+        <v>25000</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="5"/>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="5"/>
+        <v>15600</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="5"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:H30" si="6">C$3*10000/C8</f>
+        <v>31200</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>34285.714285714283</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="6"/>
+        <v>40000</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="6"/>
+        <v>15600</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="6"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:H31" si="7">C$3*10000/C9</f>
+        <v>5032.2580645161288</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="7"/>
+        <v>10434.782608695652</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="7"/>
+        <v>4761.9047619047615</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="7"/>
+        <v>7407.4074074074078</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="7"/>
+        <v>4333.333333333333</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="7"/>
+        <v>9090.9090909090901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:H32" si="8">C$3*10000/C10</f>
+        <v>52000</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="8"/>
+        <v>48000</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="8"/>
+        <v>26000</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="8"/>
+        <v>33333.333333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:H33" si="9">C$3*10000/C11</f>
+        <v>912.28070175438597</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="9"/>
+        <v>2962.962962962963</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="9"/>
+        <v>1470.5882352941176</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="9"/>
+        <v>1904.7619047619048</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="9"/>
+        <v>3120</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="9"/>
+        <v>1754.3859649122808</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:H34" si="10">C$3*10000/C12</f>
+        <v>1659.5744680851064</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="10"/>
+        <v>3076.9230769230771</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="10"/>
+        <v>3846.1538461538462</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="10"/>
+        <v>2247.1910112359551</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="10"/>
+        <v>1591.8367346938776</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="10"/>
+        <v>1234.5679012345679</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ref="C35:H35" si="11">C$3*10000/C13</f>
+        <v>2328.3582089552237</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="11"/>
+        <v>3636.3636363636365</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="11"/>
+        <v>2631.5789473684213</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="11"/>
+        <v>3174.6031746031745</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="11"/>
+        <v>1813.953488372093</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="11"/>
+        <v>1851.851851851852</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:H36" si="12">C$3*10000/C14</f>
+        <v>3058.8235294117649</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="12"/>
+        <v>5581.395348837209</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="12"/>
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="12"/>
+        <v>4878.0487804878048</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="12"/>
+        <v>3120</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="12"/>
+        <v>2777.7777777777778</v>
       </c>
     </row>
   </sheetData>
